--- a/data/trans_orig/PER_CONT_AIRE-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PER_CONT_AIRE-Edad-trans_orig.xlsx
@@ -8783,12 +8783,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>1134</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -8798,12 +8798,12 @@
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>1,08%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -9204,97 +9204,97 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F10" s="2" t="inlineStr">
-        <is>
-          <t>1195</t>
-        </is>
-      </c>
-      <c r="G10" s="2" t="inlineStr">
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H10" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I10" s="2" t="inlineStr">
-        <is>
-          <t>0,69%</t>
-        </is>
-      </c>
-      <c r="J10" s="2" t="inlineStr">
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
+      <c r="R10" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>1265</t>
-        </is>
-      </c>
-      <c r="N10" s="2" t="inlineStr">
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U10" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O10" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P10" s="2" t="inlineStr">
-        <is>
-          <t>0,64%</t>
-        </is>
-      </c>
-      <c r="Q10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S10" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T10" s="2" t="inlineStr">
-        <is>
-          <t>1234</t>
-        </is>
-      </c>
-      <c r="U10" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -9660,12 +9660,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>1207</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -9675,12 +9675,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>0,5%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -10572,97 +10572,97 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F22" s="2" t="inlineStr">
-        <is>
-          <t>1217</t>
-        </is>
-      </c>
-      <c r="G22" s="2" t="inlineStr">
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H22" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I22" s="2" t="inlineStr">
-        <is>
-          <t>0,52%</t>
-        </is>
-      </c>
-      <c r="J22" s="2" t="inlineStr">
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K22" s="2" t="inlineStr">
+      <c r="R22" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M22" s="2" t="inlineStr">
-        <is>
-          <t>1155</t>
-        </is>
-      </c>
-      <c r="N22" s="2" t="inlineStr">
+      <c r="S22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T22" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U22" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O22" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P22" s="2" t="inlineStr">
-        <is>
-          <t>0,49%</t>
-        </is>
-      </c>
-      <c r="Q22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S22" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T22" s="2" t="inlineStr">
-        <is>
-          <t>1187</t>
-        </is>
-      </c>
-      <c r="U22" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>0,25%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -11484,97 +11484,97 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G30" s="2" t="inlineStr">
+        <is>
+          <t>0,0%</t>
+        </is>
+      </c>
+      <c r="H30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J30" s="2" t="inlineStr">
+        <is>
           <t>0</t>
         </is>
       </c>
-      <c r="F30" s="2" t="inlineStr">
-        <is>
-          <t>583</t>
-        </is>
-      </c>
-      <c r="G30" s="2" t="inlineStr">
+      <c r="K30" s="2" t="inlineStr">
+        <is>
+          <t>0</t>
+        </is>
+      </c>
+      <c r="L30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N30" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="H30" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="I30" s="2" t="inlineStr">
-        <is>
-          <t>0,4%</t>
-        </is>
-      </c>
-      <c r="J30" s="2" t="inlineStr">
+      <c r="O30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P30" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q30" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="K30" s="2" t="inlineStr">
+      <c r="R30" s="2" t="inlineStr">
         <is>
           <t>0</t>
         </is>
       </c>
-      <c r="L30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="M30" s="2" t="inlineStr">
-        <is>
-          <t>759</t>
-        </is>
-      </c>
-      <c r="N30" s="2" t="inlineStr">
+      <c r="S30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T30" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="U30" s="2" t="inlineStr">
         <is>
           <t>0,0%</t>
         </is>
       </c>
-      <c r="O30" s="2" t="inlineStr">
-        <is>
-          <t>0%</t>
-        </is>
-      </c>
-      <c r="P30" s="2" t="inlineStr">
-        <is>
-          <t>0,4%</t>
-        </is>
-      </c>
-      <c r="Q30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="R30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="S30" s="2" t="inlineStr">
-        <is>
-          <t>0</t>
-        </is>
-      </c>
-      <c r="T30" s="2" t="inlineStr">
-        <is>
-          <t>672</t>
-        </is>
-      </c>
-      <c r="U30" s="2" t="inlineStr">
-        <is>
-          <t>0,0%</t>
-        </is>
-      </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>0,2%</t>
+          <t>—%</t>
         </is>
       </c>
     </row>

--- a/data/trans_orig/PER_CONT_AIRE-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PER_CONT_AIRE-Edad-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica en País Vasco</t>
+          <t>Percepción contaminación atmosférica en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -4436,7 +4436,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica en Andalucia</t>
+          <t>Percepción contaminación atmosférica en Andalucia (tasa de respuesta: 99,04%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -8327,7 +8327,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Percepción contaminación atmosférica en C.Valenciana</t>
+          <t>Percepción contaminación atmosférica en C.Valenciana (tasa de respuesta: 93,59%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/PER_CONT_AIRE-Edad-trans_orig.xlsx
+++ b/data/trans_orig/PER_CONT_AIRE-Edad-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>60248</t>
+          <t>63108</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>58182</t>
+          <t>60934</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>61838</t>
+          <t>64765</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>93,25%</t>
+          <t>93,28%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>90,05%</t>
+          <t>90,07%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>95,71%</t>
+          <t>95,73%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>57973</t>
+          <t>63592</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>55455</t>
+          <t>61097</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>59737</t>
+          <t>65435</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>91,74%</t>
+          <t>93,07%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>87,75%</t>
+          <t>89,42%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>94,53%</t>
+          <t>95,76%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>118222</t>
+          <t>126699</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>114934</t>
+          <t>123318</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>120629</t>
+          <t>129081</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>92,5%</t>
+          <t>93,17%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>89,93%</t>
+          <t>90,69%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>94,39%</t>
+          <t>94,92%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4084</t>
+          <t>4229</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>2624</t>
+          <t>2644</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>6195</t>
+          <t>6477</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>6,25%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>4,06%</t>
+          <t>3,91%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>9,59%</t>
+          <t>9,57%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>4308</t>
+          <t>3921</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>2710</t>
+          <t>2347</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>6714</t>
+          <t>6300</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>6,82%</t>
+          <t>5,74%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>4,29%</t>
+          <t>3,43%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>10,62%</t>
+          <t>9,22%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>8392</t>
+          <t>8151</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>6154</t>
+          <t>6030</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>11494</t>
+          <t>11521</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>6,57%</t>
+          <t>5,99%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>4,82%</t>
+          <t>4,43%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>8,99%</t>
+          <t>8,47%</t>
         </is>
       </c>
     </row>
@@ -961,7 +961,7 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>277</t>
+          <t>317</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
@@ -971,12 +971,12 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>1131</t>
+          <t>1325</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>0,43%</t>
+          <t>0,47%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
@@ -986,7 +986,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>1,75%</t>
+          <t>1,96%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -996,32 +996,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>816</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>252</t>
+          <t>261</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>2158</t>
+          <t>2020</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>1,45%</t>
+          <t>1,19%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>0,4%</t>
+          <t>0,38%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1031,32 +1031,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>1190</t>
+          <t>1133</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>472</t>
+          <t>383</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>2526</t>
+          <t>2325</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>0,93%</t>
+          <t>0,83%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>0,37%</t>
+          <t>0,28%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>1,98%</t>
+          <t>1,71%</t>
         </is>
       </c>
     </row>
@@ -1074,17 +1074,17 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>64609</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>64609</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>64609</t>
+          <t>67654</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -1109,17 +1109,17 @@
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>63195</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>63195</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>63195</t>
+          <t>68329</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1144,17 +1144,17 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>127804</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>127804</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>127804</t>
+          <t>135983</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -1191,32 +1191,32 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>66220</t>
+          <t>85261</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>64003</t>
+          <t>82252</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>68159</t>
+          <t>87316</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>92,12%</t>
+          <t>93,36%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>89,04%</t>
+          <t>90,07%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>94,82%</t>
+          <t>95,61%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -1226,32 +1226,32 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>63851</t>
+          <t>85576</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>62287</t>
+          <t>83006</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>64968</t>
+          <t>87318</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
         <is>
-          <t>96,36%</t>
+          <t>95,62%</t>
         </is>
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>94,0%</t>
+          <t>92,75%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>98,04%</t>
+          <t>97,57%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -1261,32 +1261,32 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>130071</t>
+          <t>170836</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>127499</t>
+          <t>166684</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>132301</t>
+          <t>173624</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
         <is>
-          <t>94,15%</t>
+          <t>94,48%</t>
         </is>
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>92,29%</t>
+          <t>92,18%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>95,77%</t>
+          <t>96,02%</t>
         </is>
       </c>
     </row>
@@ -1304,32 +1304,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>4574</t>
+          <t>4615</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2879</t>
+          <t>2926</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6832</t>
+          <t>7300</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>6,36%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,01%</t>
+          <t>3,2%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>9,5%</t>
+          <t>7,99%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1339,32 +1339,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>2065</t>
+          <t>3479</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>1065</t>
+          <t>1821</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>3698</t>
+          <t>5934</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,89%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>1,61%</t>
+          <t>2,04%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>5,58%</t>
+          <t>6,63%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1374,32 +1374,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>6639</t>
+          <t>8094</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>4616</t>
+          <t>5478</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>8977</t>
+          <t>11669</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>4,48%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>3,34%</t>
+          <t>3,03%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>6,45%</t>
         </is>
       </c>
     </row>
@@ -1417,32 +1417,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>1091</t>
+          <t>1449</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>453</t>
+          <t>621</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>2351</t>
+          <t>3122</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,59%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>0,63%</t>
+          <t>0,68%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>3,42%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1452,7 +1452,7 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>348</t>
+          <t>438</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
@@ -1462,12 +1462,12 @@
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>1568</t>
+          <t>1570</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>0,53%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
@@ -1477,7 +1477,7 @@
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>2,37%</t>
+          <t>1,75%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1487,17 +1487,17 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>1439</t>
+          <t>1887</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>714</t>
+          <t>893</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>3042</t>
+          <t>3716</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -1507,12 +1507,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,52%</t>
+          <t>0,49%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>2,2%</t>
+          <t>2,06%</t>
         </is>
       </c>
     </row>
@@ -1530,17 +1530,17 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>71885</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>71885</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>71885</t>
+          <t>91325</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -1565,17 +1565,17 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>66264</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>66264</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>66264</t>
+          <t>89493</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -1600,17 +1600,17 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>138149</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>138149</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>138149</t>
+          <t>180818</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -1647,32 +1647,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>88700</t>
+          <t>115441</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>85710</t>
+          <t>111649</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>91134</t>
+          <t>118077</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>90,89%</t>
+          <t>91,3%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>87,83%</t>
+          <t>88,3%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>93,39%</t>
+          <t>93,38%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1682,32 +1682,32 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>90289</t>
+          <t>115592</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>87512</t>
+          <t>112043</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>93112</t>
+          <t>118336</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>90,17%</t>
+          <t>91,24%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>87,39%</t>
+          <t>88,44%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>92,99%</t>
+          <t>93,4%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1717,32 +1717,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>178988</t>
+          <t>231032</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>174981</t>
+          <t>226335</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>182537</t>
+          <t>234861</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>90,52%</t>
+          <t>91,27%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>88,5%</t>
+          <t>89,41%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>92,32%</t>
+          <t>92,78%</t>
         </is>
       </c>
     </row>
@@ -1760,32 +1760,32 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>7762</t>
+          <t>10082</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>5668</t>
+          <t>7464</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>10640</t>
+          <t>13593</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>7,97%</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>5,81%</t>
+          <t>5,9%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>10,75%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -1795,32 +1795,32 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>7668</t>
+          <t>9160</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>5260</t>
+          <t>6624</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>10102</t>
+          <t>12499</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>5,25%</t>
+          <t>5,23%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>10,09%</t>
+          <t>9,87%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -1830,32 +1830,32 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>15430</t>
+          <t>19242</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>12131</t>
+          <t>15753</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>18845</t>
+          <t>23755</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
         <is>
-          <t>7,8%</t>
+          <t>7,6%</t>
         </is>
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,14%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>9,38%</t>
         </is>
       </c>
     </row>
@@ -1873,32 +1873,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>1125</t>
+          <t>919</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>349</t>
+          <t>338</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>2730</t>
+          <t>2373</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>1,15%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,27%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>2,8%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1908,32 +1908,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>2179</t>
+          <t>1942</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>1014</t>
+          <t>1003</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>4304</t>
+          <t>3780</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>2,18%</t>
+          <t>1,53%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>0,79%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1943,32 +1943,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>3304</t>
+          <t>2862</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>1708</t>
+          <t>1627</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>5473</t>
+          <t>4715</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>1,67%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>0,86%</t>
+          <t>0,64%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>2,77%</t>
+          <t>1,86%</t>
         </is>
       </c>
     </row>
@@ -1986,17 +1986,17 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>97587</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>97587</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>97587</t>
+          <t>126443</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -2021,17 +2021,17 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>100136</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>100136</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>100136</t>
+          <t>126694</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -2056,17 +2056,17 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>197723</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>197723</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>197723</t>
+          <t>253136</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -2103,32 +2103,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>128883</t>
+          <t>136583</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>125530</t>
+          <t>133091</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>131692</t>
+          <t>139307</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>91,24%</t>
+          <t>92,2%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>88,87%</t>
+          <t>89,84%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>93,23%</t>
+          <t>94,04%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2138,32 +2138,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>128524</t>
+          <t>139573</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>125271</t>
+          <t>136395</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>131357</t>
+          <t>142221</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>91,53%</t>
+          <t>93,0%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>89,21%</t>
+          <t>90,89%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>93,55%</t>
+          <t>94,77%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2173,32 +2173,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>257407</t>
+          <t>276158</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>252778</t>
+          <t>271570</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>261858</t>
+          <t>280077</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>91,39%</t>
+          <t>92,6%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>89,74%</t>
+          <t>91,07%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>92,97%</t>
+          <t>93,92%</t>
         </is>
       </c>
     </row>
@@ -2216,102 +2216,102 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>9088</t>
+          <t>9038</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>6711</t>
+          <t>6731</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>11755</t>
+          <t>12105</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,43%</t>
+          <t>6,1%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
+          <t>4,54%</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>8,17%</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>50</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>8650</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>6489</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>11605</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>5,76%</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>4,32%</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>7,73%</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>100</t>
+        </is>
+      </c>
+      <c r="R17" s="2" t="inlineStr">
+        <is>
+          <t>17688</t>
+        </is>
+      </c>
+      <c r="S17" s="2" t="inlineStr">
+        <is>
+          <t>14165</t>
+        </is>
+      </c>
+      <c r="T17" s="2" t="inlineStr">
+        <is>
+          <t>21739</t>
+        </is>
+      </c>
+      <c r="U17" s="2" t="inlineStr">
+        <is>
+          <t>5,93%</t>
+        </is>
+      </c>
+      <c r="V17" s="2" t="inlineStr">
+        <is>
           <t>4,75%</t>
         </is>
       </c>
-      <c r="I17" s="2" t="inlineStr">
-        <is>
-          <t>8,32%</t>
-        </is>
-      </c>
-      <c r="J17" s="2" t="inlineStr">
-        <is>
-          <t>50</t>
-        </is>
-      </c>
-      <c r="K17" s="2" t="inlineStr">
-        <is>
-          <t>9362</t>
-        </is>
-      </c>
-      <c r="L17" s="2" t="inlineStr">
-        <is>
-          <t>6872</t>
-        </is>
-      </c>
-      <c r="M17" s="2" t="inlineStr">
-        <is>
-          <t>12519</t>
-        </is>
-      </c>
-      <c r="N17" s="2" t="inlineStr">
-        <is>
-          <t>6,67%</t>
-        </is>
-      </c>
-      <c r="O17" s="2" t="inlineStr">
-        <is>
-          <t>4,89%</t>
-        </is>
-      </c>
-      <c r="P17" s="2" t="inlineStr">
-        <is>
-          <t>8,92%</t>
-        </is>
-      </c>
-      <c r="Q17" s="2" t="inlineStr">
-        <is>
-          <t>100</t>
-        </is>
-      </c>
-      <c r="R17" s="2" t="inlineStr">
-        <is>
-          <t>18449</t>
-        </is>
-      </c>
-      <c r="S17" s="2" t="inlineStr">
-        <is>
-          <t>14802</t>
-        </is>
-      </c>
-      <c r="T17" s="2" t="inlineStr">
-        <is>
-          <t>22256</t>
-        </is>
-      </c>
-      <c r="U17" s="2" t="inlineStr">
-        <is>
-          <t>6,55%</t>
-        </is>
-      </c>
-      <c r="V17" s="2" t="inlineStr">
-        <is>
-          <t>5,26%</t>
-        </is>
-      </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>7,9%</t>
+          <t>7,29%</t>
         </is>
       </c>
     </row>
@@ -2329,32 +2329,32 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>3280</t>
+          <t>2519</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>1844</t>
+          <t>1425</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>5511</t>
+          <t>4419</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>2,32%</t>
+          <t>1,7%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1,31%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,9%</t>
+          <t>2,98%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -2364,32 +2364,32 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>2534</t>
+          <t>1851</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>1375</t>
+          <t>935</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>4427</t>
+          <t>3190</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
         <is>
-          <t>1,8%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>0,62%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>2,13%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -2399,32 +2399,32 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>5814</t>
+          <t>4369</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>3837</t>
+          <t>2865</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>8766</t>
+          <t>6576</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>1,47%</t>
         </is>
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>1,36%</t>
+          <t>0,96%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>3,11%</t>
+          <t>2,21%</t>
         </is>
       </c>
     </row>
@@ -2442,17 +2442,17 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>141250</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>141250</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>141250</t>
+          <t>148140</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -2477,17 +2477,17 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>140420</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>140420</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>140420</t>
+          <t>150074</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -2512,17 +2512,17 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>281670</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>281670</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>281670</t>
+          <t>298215</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -2559,32 +2559,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>116548</t>
+          <t>119871</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>113211</t>
+          <t>116787</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>118955</t>
+          <t>122485</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>91,54%</t>
+          <t>92,16%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>88,92%</t>
+          <t>89,79%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>93,43%</t>
+          <t>94,17%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2594,32 +2594,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>137762</t>
+          <t>129220</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>134751</t>
+          <t>126315</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>140547</t>
+          <t>131383</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>92,07%</t>
+          <t>92,45%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>90,06%</t>
+          <t>90,38%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>93,93%</t>
+          <t>94,0%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2629,32 +2629,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>254310</t>
+          <t>249092</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>249891</t>
+          <t>244850</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>257862</t>
+          <t>252737</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>91,83%</t>
+          <t>92,31%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>90,23%</t>
+          <t>90,74%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>93,11%</t>
+          <t>93,66%</t>
         </is>
       </c>
     </row>
@@ -2672,32 +2672,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>9630</t>
+          <t>8580</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>7274</t>
+          <t>6181</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>12827</t>
+          <t>11417</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>7,56%</t>
+          <t>6,6%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>5,71%</t>
+          <t>4,75%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>8,78%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2707,32 +2707,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>9090</t>
+          <t>7767</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>6711</t>
+          <t>5814</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>11924</t>
+          <t>10274</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>6,08%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>4,16%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>7,97%</t>
+          <t>7,35%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2742,32 +2742,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>18720</t>
+          <t>16347</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>15403</t>
+          <t>13336</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>23016</t>
+          <t>20532</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>6,76%</t>
+          <t>6,06%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>5,56%</t>
+          <t>4,94%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>8,31%</t>
+          <t>7,61%</t>
         </is>
       </c>
     </row>
@@ -2785,32 +2785,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>1139</t>
+          <t>1618</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>519</t>
+          <t>773</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>2191</t>
+          <t>3111</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>0,89%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,59%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>2,39%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2820,32 +2820,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>2780</t>
+          <t>2779</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>1578</t>
+          <t>1623</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>4540</t>
+          <t>4304</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>1,99%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>1,05%</t>
+          <t>1,16%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>3,03%</t>
+          <t>3,08%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2855,32 +2855,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>3919</t>
+          <t>4396</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>2556</t>
+          <t>2853</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>5822</t>
+          <t>6507</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,63%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>0,92%</t>
+          <t>1,06%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>2,1%</t>
+          <t>2,41%</t>
         </is>
       </c>
     </row>
@@ -2898,17 +2898,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>127317</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>127317</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>127317</t>
+          <t>130069</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2933,17 +2933,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>149632</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>149632</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>149632</t>
+          <t>139766</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2968,17 +2968,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>276949</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>276949</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>276949</t>
+          <t>269835</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3015,32 +3015,32 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>104770</t>
+          <t>89332</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>102105</t>
+          <t>87108</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>107017</t>
+          <t>91088</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
         <is>
-          <t>92,66%</t>
+          <t>93,39%</t>
         </is>
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>90,31%</t>
+          <t>91,07%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>94,65%</t>
+          <t>95,23%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3050,32 +3050,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>106867</t>
+          <t>103802</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>103919</t>
+          <t>101227</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>109566</t>
+          <t>105784</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>91,15%</t>
+          <t>92,71%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>88,64%</t>
+          <t>90,41%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>93,45%</t>
+          <t>94,48%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3085,32 +3085,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>211637</t>
+          <t>193135</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>207549</t>
+          <t>189937</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>215351</t>
+          <t>195931</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>91,89%</t>
+          <t>93,02%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>90,12%</t>
+          <t>91,48%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>93,51%</t>
+          <t>94,37%</t>
         </is>
       </c>
     </row>
@@ -3128,32 +3128,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>5960</t>
+          <t>4409</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>3861</t>
+          <t>2828</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>8455</t>
+          <t>6372</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>5,27%</t>
+          <t>4,61%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>3,41%</t>
+          <t>2,96%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>7,48%</t>
+          <t>6,66%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3163,32 +3163,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>8587</t>
+          <t>6504</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>6194</t>
+          <t>4713</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>11547</t>
+          <t>9145</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>7,32%</t>
+          <t>5,81%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>5,28%</t>
+          <t>4,21%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>9,85%</t>
+          <t>8,17%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3198,32 +3198,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>14547</t>
+          <t>10913</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>11390</t>
+          <t>8525</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>18138</t>
+          <t>13804</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>6,32%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>4,95%</t>
+          <t>4,11%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>7,88%</t>
+          <t>6,65%</t>
         </is>
       </c>
     </row>
@@ -3241,32 +3241,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>2333</t>
+          <t>1911</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1270</t>
+          <t>994</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>4174</t>
+          <t>3220</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>2,06%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>1,12%</t>
+          <t>1,04%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>3,69%</t>
+          <t>3,37%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3276,32 +3276,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>1787</t>
+          <t>1664</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>913</t>
+          <t>858</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>3275</t>
+          <t>2979</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,49%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>0,78%</t>
+          <t>0,77%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>2,79%</t>
+          <t>2,66%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3311,32 +3311,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>4120</t>
+          <t>3575</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>2508</t>
+          <t>2356</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>6160</t>
+          <t>5374</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>1,79%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>1,13%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>2,67%</t>
+          <t>2,59%</t>
         </is>
       </c>
     </row>
@@ -3354,17 +3354,17 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>113064</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>113064</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>113064</t>
+          <t>95652</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -3389,17 +3389,17 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>117241</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>117241</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>117241</t>
+          <t>111970</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -3424,17 +3424,17 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>230304</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>230304</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>230304</t>
+          <t>207623</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -3471,32 +3471,32 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>92980</t>
+          <t>75978</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>89814</t>
+          <t>73560</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>94769</t>
+          <t>77611</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
         <is>
-          <t>94,82%</t>
+          <t>94,5%</t>
         </is>
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>91,59%</t>
+          <t>91,49%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>96,64%</t>
+          <t>96,53%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -3506,32 +3506,32 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>126713</t>
+          <t>119737</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>124116</t>
+          <t>117506</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>128745</t>
+          <t>121621</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
         <is>
-          <t>95,03%</t>
+          <t>95,0%</t>
         </is>
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>93,08%</t>
+          <t>93,23%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>96,55%</t>
+          <t>96,5%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -3541,32 +3541,32 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>219694</t>
+          <t>195715</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>216228</t>
+          <t>192475</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>222587</t>
+          <t>198225</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
         <is>
-          <t>94,94%</t>
+          <t>94,81%</t>
         </is>
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>93,44%</t>
+          <t>93,24%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>96,19%</t>
+          <t>96,02%</t>
         </is>
       </c>
     </row>
@@ -3584,32 +3584,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>4494</t>
+          <t>4041</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2928</t>
+          <t>2551</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>7637</t>
+          <t>6531</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>4,58%</t>
+          <t>5,03%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>2,99%</t>
+          <t>3,17%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>7,79%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3619,32 +3619,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>5902</t>
+          <t>5613</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>4006</t>
+          <t>3848</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>8682</t>
+          <t>7838</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>4,45%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>3,0%</t>
+          <t>3,05%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>6,51%</t>
+          <t>6,22%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3654,32 +3654,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>10396</t>
+          <t>9654</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>7698</t>
+          <t>7316</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>13735</t>
+          <t>12788</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>4,68%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>3,33%</t>
+          <t>3,54%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>5,94%</t>
+          <t>6,19%</t>
         </is>
       </c>
     </row>
@@ -3697,32 +3697,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>585</t>
+          <t>384</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>96</t>
+          <t>106</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>2064</t>
+          <t>1164</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>0,6%</t>
+          <t>0,48%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>0,1%</t>
+          <t>0,13%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>1,45%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3732,17 +3732,17 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>724</t>
+          <t>683</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>278</t>
+          <t>247</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>1651</t>
+          <t>1628</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -3752,12 +3752,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>0,21%</t>
+          <t>0,2%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>1,24%</t>
+          <t>1,29%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3767,32 +3767,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>1308</t>
+          <t>1067</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>636</t>
+          <t>480</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>2576</t>
+          <t>2206</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>0,57%</t>
+          <t>0,52%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>0,27%</t>
+          <t>0,23%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>1,11%</t>
+          <t>1,07%</t>
         </is>
       </c>
     </row>
@@ -3810,17 +3810,17 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>98059</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>98059</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>98059</t>
+          <t>80403</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -3845,17 +3845,17 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>133339</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>133339</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>133339</t>
+          <t>126033</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -3880,17 +3880,17 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>231399</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>231399</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>231399</t>
+          <t>206436</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -3927,32 +3927,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>658349</t>
+          <t>685575</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>651534</t>
+          <t>678752</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>664419</t>
+          <t>691849</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>92,24%</t>
+          <t>92,68%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>91,28%</t>
+          <t>91,76%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>93,09%</t>
+          <t>93,53%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3962,32 +3962,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>711980</t>
+          <t>757092</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>704740</t>
+          <t>750140</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>718247</t>
+          <t>762969</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>92,44%</t>
+          <t>93,2%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>91,5%</t>
+          <t>92,34%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>93,25%</t>
+          <t>93,92%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3997,32 +3997,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>1370329</t>
+          <t>1442667</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>1360774</t>
+          <t>1433438</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>1379612</t>
+          <t>1450973</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>92,34%</t>
+          <t>92,95%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>91,7%</t>
+          <t>92,36%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>92,97%</t>
+          <t>93,49%</t>
         </is>
       </c>
     </row>
@@ -4040,32 +4040,32 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>45592</t>
+          <t>44994</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>39865</t>
+          <t>38878</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>52096</t>
+          <t>50961</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
         <is>
-          <t>6,39%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>5,59%</t>
+          <t>5,26%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>7,3%</t>
+          <t>6,89%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -4075,32 +4075,32 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>46982</t>
+          <t>45095</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>41272</t>
+          <t>39238</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>53698</t>
+          <t>51129</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
         <is>
-          <t>6,1%</t>
+          <t>5,55%</t>
         </is>
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>4,83%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>6,29%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -4110,32 +4110,32 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>92575</t>
+          <t>90089</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>84847</t>
+          <t>82498</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>101819</t>
+          <t>98671</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
         <is>
-          <t>6,24%</t>
+          <t>5,8%</t>
         </is>
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>5,72%</t>
+          <t>5,32%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>6,86%</t>
+          <t>6,36%</t>
         </is>
       </c>
     </row>
@@ -4153,32 +4153,32 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>9831</t>
+          <t>9118</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>7146</t>
+          <t>6870</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>13417</t>
+          <t>12155</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,23%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>1,0%</t>
+          <t>0,93%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,64%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4188,32 +4188,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>11265</t>
+          <t>10172</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>8405</t>
+          <t>7904</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>14505</t>
+          <t>13534</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>1,46%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>1,09%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>1,88%</t>
+          <t>1,67%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4223,32 +4223,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>21095</t>
+          <t>19290</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>16960</t>
+          <t>15871</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>25498</t>
+          <t>23120</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>1,42%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>1,49%</t>
         </is>
       </c>
     </row>
@@ -4266,17 +4266,17 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>713772</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>713772</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>713772</t>
+          <t>739687</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -4301,17 +4301,17 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>770227</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>770227</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>770227</t>
+          <t>812359</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -4336,17 +4336,17 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>1483999</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>1483999</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>1483999</t>
+          <t>1552046</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -4631,12 +4631,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>191786</t>
+          <t>193097</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>223599</t>
+          <t>224018</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -4646,12 +4646,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>82,54%</t>
+          <t>83,1%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>96,23%</t>
+          <t>96,41%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -4666,12 +4666,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>138607</t>
+          <t>138774</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>167161</t>
+          <t>166005</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -4681,12 +4681,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>75,32%</t>
+          <t>75,41%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>90,84%</t>
+          <t>90,21%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -4701,12 +4701,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>344497</t>
+          <t>336970</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>384579</t>
+          <t>382852</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -4716,12 +4716,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>82,73%</t>
+          <t>80,93%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>92,36%</t>
+          <t>91,95%</t>
         </is>
       </c>
     </row>
@@ -4744,12 +4744,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4863</t>
+          <t>4692</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>29851</t>
+          <t>26119</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -4759,12 +4759,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>2,02%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>12,85%</t>
+          <t>11,24%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -4779,12 +4779,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12471</t>
+          <t>13029</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>38027</t>
+          <t>39352</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -4794,12 +4794,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>7,08%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>20,66%</t>
+          <t>21,38%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -4814,12 +4814,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>21318</t>
+          <t>23234</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>57393</t>
+          <t>58409</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -4829,12 +4829,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>5,12%</t>
+          <t>5,58%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>14,03%</t>
         </is>
       </c>
     </row>
@@ -4862,7 +4862,7 @@
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>26753</t>
+          <t>25433</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -4877,7 +4877,7 @@
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>11,51%</t>
+          <t>10,95%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -4892,12 +4892,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>1624</t>
+          <t>1623</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>16225</t>
+          <t>17025</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -4912,7 +4912,7 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>8,82%</t>
+          <t>9,25%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -4927,12 +4927,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>5139</t>
+          <t>4252</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>31889</t>
+          <t>33487</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -4942,12 +4942,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,02%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>7,66%</t>
+          <t>8,04%</t>
         </is>
       </c>
     </row>
@@ -5087,12 +5087,12 @@
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>187961</t>
+          <t>187870</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>213893</t>
+          <t>212740</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -5102,12 +5102,12 @@
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>81,95%</t>
+          <t>81,91%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>93,25%</t>
+          <t>92,75%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
@@ -5122,12 +5122,12 @@
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>266548</t>
+          <t>266512</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>300102</t>
+          <t>299663</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -5137,12 +5137,12 @@
       </c>
       <c r="O8" s="2" t="inlineStr">
         <is>
-          <t>84,82%</t>
+          <t>84,8%</t>
         </is>
       </c>
       <c r="P8" s="2" t="inlineStr">
         <is>
-          <t>95,49%</t>
+          <t>95,35%</t>
         </is>
       </c>
       <c r="Q8" s="2" t="inlineStr">
@@ -5157,12 +5157,12 @@
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>467804</t>
+          <t>465730</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>510958</t>
+          <t>508732</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -5172,12 +5172,12 @@
       </c>
       <c r="V8" s="2" t="inlineStr">
         <is>
-          <t>86,05%</t>
+          <t>85,67%</t>
         </is>
       </c>
       <c r="W8" s="2" t="inlineStr">
         <is>
-          <t>93,99%</t>
+          <t>93,58%</t>
         </is>
       </c>
     </row>
@@ -5200,12 +5200,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10675</t>
+          <t>11042</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>34230</t>
+          <t>33992</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -5215,12 +5215,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>4,65%</t>
+          <t>4,81%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>14,82%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -5235,12 +5235,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>12051</t>
+          <t>11956</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>40797</t>
+          <t>40614</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -5250,12 +5250,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>3,83%</t>
+          <t>3,8%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>12,98%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -5270,12 +5270,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>24400</t>
+          <t>28030</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>62396</t>
+          <t>63669</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -5285,12 +5285,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>4,49%</t>
+          <t>5,16%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>11,48%</t>
+          <t>11,71%</t>
         </is>
       </c>
     </row>
@@ -5313,12 +5313,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>2325</t>
+          <t>2409</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>15570</t>
+          <t>16957</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -5328,12 +5328,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>1,01%</t>
+          <t>1,05%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>6,79%</t>
+          <t>7,39%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -5348,12 +5348,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>1132</t>
+          <t>1059</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>14245</t>
+          <t>13640</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -5363,12 +5363,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>0,36%</t>
+          <t>0,34%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>4,53%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -5383,12 +5383,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>5281</t>
+          <t>4826</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>22349</t>
+          <t>23454</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -5398,12 +5398,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>0,97%</t>
+          <t>0,89%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>4,11%</t>
+          <t>4,31%</t>
         </is>
       </c>
     </row>
@@ -5543,12 +5543,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>257684</t>
+          <t>257334</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>281317</t>
+          <t>282791</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -5558,12 +5558,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>83,58%</t>
+          <t>83,47%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>91,25%</t>
+          <t>91,73%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -5578,12 +5578,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>268550</t>
+          <t>268545</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>289588</t>
+          <t>289926</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -5598,7 +5598,7 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>90,38%</t>
+          <t>90,49%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -5613,12 +5613,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>535346</t>
+          <t>534177</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>566700</t>
+          <t>564373</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -5628,12 +5628,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>85,15%</t>
+          <t>84,97%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>90,14%</t>
+          <t>89,77%</t>
         </is>
       </c>
     </row>
@@ -5656,12 +5656,12 @@
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>20031</t>
+          <t>18945</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>40594</t>
+          <t>40455</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -5671,12 +5671,12 @@
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>6,5%</t>
+          <t>6,14%</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>13,17%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
@@ -5691,12 +5691,12 @@
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>20663</t>
+          <t>20708</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>38535</t>
+          <t>37751</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -5706,12 +5706,12 @@
       </c>
       <c r="O13" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>6,46%</t>
         </is>
       </c>
       <c r="P13" s="2" t="inlineStr">
         <is>
-          <t>12,03%</t>
+          <t>11,78%</t>
         </is>
       </c>
       <c r="Q13" s="2" t="inlineStr">
@@ -5726,12 +5726,12 @@
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>43843</t>
+          <t>45324</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>72019</t>
+          <t>74046</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -5741,12 +5741,12 @@
       </c>
       <c r="V13" s="2" t="inlineStr">
         <is>
-          <t>6,97%</t>
+          <t>7,21%</t>
         </is>
       </c>
       <c r="W13" s="2" t="inlineStr">
         <is>
-          <t>11,46%</t>
+          <t>11,78%</t>
         </is>
       </c>
     </row>
@@ -5769,12 +5769,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>3527</t>
+          <t>3869</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>16512</t>
+          <t>17753</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -5784,12 +5784,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>1,14%</t>
+          <t>1,25%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>5,36%</t>
+          <t>5,76%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -5804,12 +5804,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>6737</t>
+          <t>6741</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>18744</t>
+          <t>18292</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -5824,7 +5824,7 @@
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>5,85%</t>
+          <t>5,71%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -5839,12 +5839,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>12601</t>
+          <t>12736</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>30217</t>
+          <t>30039</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -5854,12 +5854,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>2,0%</t>
+          <t>2,03%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>4,81%</t>
+          <t>4,78%</t>
         </is>
       </c>
     </row>
@@ -5999,12 +5999,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>541150</t>
+          <t>540819</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>608720</t>
+          <t>608760</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -6014,12 +6014,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>86,78%</t>
+          <t>86,72%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>97,61%</t>
+          <t>97,62%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -6034,12 +6034,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>337088</t>
+          <t>337474</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>357891</t>
+          <t>359306</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -6049,12 +6049,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>83,98%</t>
+          <t>84,08%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>89,17%</t>
+          <t>89,52%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -6069,12 +6069,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>890073</t>
+          <t>887035</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>973932</t>
+          <t>981732</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -6084,12 +6084,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>86,84%</t>
+          <t>86,54%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>95,02%</t>
+          <t>95,78%</t>
         </is>
       </c>
     </row>
@@ -6112,12 +6112,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>10268</t>
+          <t>11166</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>63539</t>
+          <t>63167</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -6127,12 +6127,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>1,65%</t>
+          <t>1,79%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,19%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -6147,12 +6147,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>32478</t>
+          <t>32578</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>51210</t>
+          <t>51845</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -6162,12 +6162,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>8,09%</t>
+          <t>8,12%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -6182,12 +6182,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>39637</t>
+          <t>35349</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>104907</t>
+          <t>106383</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -6197,12 +6197,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>3,87%</t>
+          <t>3,45%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>10,23%</t>
+          <t>10,38%</t>
         </is>
       </c>
     </row>
@@ -6225,12 +6225,12 @@
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3163</t>
+          <t>2590</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>23094</t>
+          <t>22735</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -6240,12 +6240,12 @@
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>0,51%</t>
+          <t>0,42%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>3,7%</t>
+          <t>3,65%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
@@ -6260,12 +6260,12 @@
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>6951</t>
+          <t>6887</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>17110</t>
+          <t>17653</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -6275,12 +6275,12 @@
       </c>
       <c r="O18" s="2" t="inlineStr">
         <is>
-          <t>1,73%</t>
+          <t>1,72%</t>
         </is>
       </c>
       <c r="P18" s="2" t="inlineStr">
         <is>
-          <t>4,26%</t>
+          <t>4,4%</t>
         </is>
       </c>
       <c r="Q18" s="2" t="inlineStr">
@@ -6295,12 +6295,12 @@
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>9994</t>
+          <t>9714</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>34465</t>
+          <t>34978</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -6310,12 +6310,12 @@
       </c>
       <c r="V18" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>0,95%</t>
         </is>
       </c>
       <c r="W18" s="2" t="inlineStr">
         <is>
-          <t>3,36%</t>
+          <t>3,41%</t>
         </is>
       </c>
     </row>
@@ -6455,12 +6455,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>275880</t>
+          <t>275615</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>299586</t>
+          <t>301055</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -6470,12 +6470,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>82,47%</t>
+          <t>82,39%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>89,55%</t>
+          <t>89,99%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -6490,12 +6490,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>263410</t>
+          <t>262237</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>282292</t>
+          <t>281391</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -6505,12 +6505,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>82,49%</t>
+          <t>82,12%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>88,4%</t>
+          <t>88,12%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -6525,12 +6525,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>544305</t>
+          <t>545214</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>575899</t>
+          <t>576394</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -6540,12 +6540,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>83,24%</t>
+          <t>83,38%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>88,08%</t>
+          <t>88,15%</t>
         </is>
       </c>
     </row>
@@ -6568,12 +6568,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>27579</t>
+          <t>26178</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>48743</t>
+          <t>48771</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -6583,12 +6583,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>8,24%</t>
+          <t>7,83%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>14,57%</t>
+          <t>14,58%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -6603,12 +6603,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>26111</t>
+          <t>26360</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>42557</t>
+          <t>43052</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -6618,12 +6618,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>8,18%</t>
+          <t>8,25%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>13,33%</t>
+          <t>13,48%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -6638,12 +6638,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>58493</t>
+          <t>57602</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>84546</t>
+          <t>85001</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -6653,12 +6653,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>8,95%</t>
+          <t>8,81%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>12,93%</t>
+          <t>13,0%</t>
         </is>
       </c>
     </row>
@@ -6681,12 +6681,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>4665</t>
+          <t>4429</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>16747</t>
+          <t>17203</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -6696,12 +6696,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>1,32%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>5,14%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -6716,12 +6716,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>7982</t>
+          <t>8194</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>19072</t>
+          <t>18605</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -6731,12 +6731,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>2,5%</t>
+          <t>2,57%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>5,97%</t>
+          <t>5,83%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -6751,12 +6751,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>14551</t>
+          <t>14289</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>31183</t>
+          <t>29983</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -6766,12 +6766,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,23%</t>
+          <t>2,19%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>4,77%</t>
+          <t>4,59%</t>
         </is>
       </c>
     </row>
@@ -6911,12 +6911,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>173108</t>
+          <t>171808</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>188039</t>
+          <t>188011</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -6926,12 +6926,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>83,42%</t>
+          <t>82,8%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>90,62%</t>
+          <t>90,61%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -6946,12 +6946,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>378910</t>
+          <t>379778</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>436708</t>
+          <t>439026</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -6961,12 +6961,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>84,34%</t>
+          <t>84,53%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>97,2%</t>
+          <t>97,72%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -6981,12 +6981,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>561828</t>
+          <t>561973</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>631124</t>
+          <t>631702</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -6996,12 +6996,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>85,54%</t>
+          <t>85,56%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>96,09%</t>
+          <t>96,18%</t>
         </is>
       </c>
     </row>
@@ -7024,12 +7024,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>16126</t>
+          <t>16453</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>30099</t>
+          <t>30737</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -7039,12 +7039,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>7,77%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>14,51%</t>
+          <t>14,81%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -7059,12 +7059,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>8801</t>
+          <t>7943</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>56105</t>
+          <t>56297</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -7074,12 +7074,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>1,96%</t>
+          <t>1,77%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>12,49%</t>
+          <t>12,53%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -7094,12 +7094,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>20516</t>
+          <t>21198</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>77863</t>
+          <t>77226</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -7109,12 +7109,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>3,12%</t>
+          <t>3,23%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>11,86%</t>
+          <t>11,76%</t>
         </is>
       </c>
     </row>
@@ -7137,12 +7137,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>1477</t>
+          <t>1368</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>7965</t>
+          <t>8334</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -7152,12 +7152,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,66%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>3,84%</t>
+          <t>4,02%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -7172,12 +7172,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>2202</t>
+          <t>1772</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>15766</t>
+          <t>15937</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -7187,12 +7187,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>0,49%</t>
+          <t>0,39%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>3,51%</t>
+          <t>3,55%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -7207,12 +7207,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>3660</t>
+          <t>3743</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>20010</t>
+          <t>19347</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -7222,12 +7222,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>0,57%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>3,05%</t>
+          <t>2,95%</t>
         </is>
       </c>
     </row>
@@ -7367,12 +7367,12 @@
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>127882</t>
+          <t>128115</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>140770</t>
+          <t>140608</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -7382,12 +7382,12 @@
       </c>
       <c r="H28" s="2" t="inlineStr">
         <is>
-          <t>84,26%</t>
+          <t>84,41%</t>
         </is>
       </c>
       <c r="I28" s="2" t="inlineStr">
         <is>
-          <t>92,75%</t>
+          <t>92,64%</t>
         </is>
       </c>
       <c r="J28" s="2" t="inlineStr">
@@ -7402,12 +7402,12 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>189783</t>
+          <t>189592</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>204210</t>
+          <t>204706</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -7417,12 +7417,12 @@
       </c>
       <c r="O28" s="2" t="inlineStr">
         <is>
-          <t>82,96%</t>
+          <t>82,88%</t>
         </is>
       </c>
       <c r="P28" s="2" t="inlineStr">
         <is>
-          <t>89,27%</t>
+          <t>89,48%</t>
         </is>
       </c>
       <c r="Q28" s="2" t="inlineStr">
@@ -7437,12 +7437,12 @@
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>322991</t>
+          <t>322927</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>342773</t>
+          <t>342608</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -7452,12 +7452,12 @@
       </c>
       <c r="V28" s="2" t="inlineStr">
         <is>
-          <t>84,88%</t>
+          <t>84,86%</t>
         </is>
       </c>
       <c r="W28" s="2" t="inlineStr">
         <is>
-          <t>90,08%</t>
+          <t>90,03%</t>
         </is>
       </c>
     </row>
@@ -7480,12 +7480,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>9803</t>
+          <t>9423</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>22303</t>
+          <t>20701</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -7495,12 +7495,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>6,46%</t>
+          <t>6,21%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>14,69%</t>
+          <t>13,64%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -7515,12 +7515,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>18871</t>
+          <t>18366</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>32528</t>
+          <t>31896</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -7530,12 +7530,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>8,25%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>13,94%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -7550,12 +7550,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>30928</t>
+          <t>30564</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>48542</t>
+          <t>48517</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -7565,12 +7565,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>8,13%</t>
+          <t>8,03%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>12,76%</t>
+          <t>12,75%</t>
         </is>
       </c>
     </row>
@@ -7593,12 +7593,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>568</t>
+          <t>563</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>5562</t>
+          <t>5783</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -7613,7 +7613,7 @@
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>3,66%</t>
+          <t>3,81%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -7628,12 +7628,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>3167</t>
+          <t>3473</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>10546</t>
+          <t>10414</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -7643,12 +7643,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>1,38%</t>
+          <t>1,52%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>4,61%</t>
+          <t>4,55%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -7663,12 +7663,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>4683</t>
+          <t>4735</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>13586</t>
+          <t>13353</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -7678,12 +7678,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>1,23%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>3,57%</t>
+          <t>3,51%</t>
         </is>
       </c>
     </row>
@@ -7823,12 +7823,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>1827788</t>
+          <t>1825961</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>1946303</t>
+          <t>1938865</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -7838,12 +7838,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>87,56%</t>
+          <t>87,47%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>93,24%</t>
+          <t>92,88%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -7858,12 +7858,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>1907424</t>
+          <t>1904465</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>2024430</t>
+          <t>2022644</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -7873,12 +7873,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>86,02%</t>
+          <t>85,89%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>91,3%</t>
+          <t>91,21%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -7893,12 +7893,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>3750144</t>
+          <t>3760027</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>3915339</t>
+          <t>3932567</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -7908,12 +7908,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>87,11%</t>
+          <t>87,34%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>90,95%</t>
+          <t>91,35%</t>
         </is>
       </c>
     </row>
@@ -7936,12 +7936,12 @@
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>112502</t>
+          <t>115070</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>204060</t>
+          <t>202841</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -7951,12 +7951,12 @@
       </c>
       <c r="H33" s="2" t="inlineStr">
         <is>
-          <t>5,39%</t>
+          <t>5,51%</t>
         </is>
       </c>
       <c r="I33" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>9,72%</t>
         </is>
       </c>
       <c r="J33" s="2" t="inlineStr">
@@ -7971,12 +7971,12 @@
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>150802</t>
+          <t>152980</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>242875</t>
+          <t>246209</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -7986,12 +7986,12 @@
       </c>
       <c r="O33" s="2" t="inlineStr">
         <is>
-          <t>6,8%</t>
+          <t>6,9%</t>
         </is>
       </c>
       <c r="P33" s="2" t="inlineStr">
         <is>
-          <t>10,95%</t>
+          <t>11,1%</t>
         </is>
       </c>
       <c r="Q33" s="2" t="inlineStr">
@@ -8006,12 +8006,12 @@
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>303608</t>
+          <t>288381</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>433468</t>
+          <t>426360</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -8021,12 +8021,12 @@
       </c>
       <c r="V33" s="2" t="inlineStr">
         <is>
-          <t>7,05%</t>
+          <t>6,7%</t>
         </is>
       </c>
       <c r="W33" s="2" t="inlineStr">
         <is>
-          <t>10,07%</t>
+          <t>9,9%</t>
         </is>
       </c>
     </row>
@@ -8049,12 +8049,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>31687</t>
+          <t>28934</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>72740</t>
+          <t>70044</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -8064,12 +8064,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>1,52%</t>
+          <t>1,39%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>3,36%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -8084,12 +8084,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>42200</t>
+          <t>43740</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>78145</t>
+          <t>76313</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -8099,12 +8099,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>1,9%</t>
+          <t>1,97%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>3,52%</t>
+          <t>3,44%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -8119,12 +8119,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>83395</t>
+          <t>80982</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>135762</t>
+          <t>134658</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -8134,12 +8134,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>1,94%</t>
+          <t>1,88%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>3,15%</t>
+          <t>3,13%</t>
         </is>
       </c>
     </row>
